--- a/users/byhov-cge.by/mdocs/admproc200byhov.xlsx
+++ b/users/byhov-cge.by/mdocs/admproc200byhov.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Хозяин\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DOWNLOADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA474F4D-AB77-42B2-B0F1-D195B7542D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>№ п/п</t>
   </si>
@@ -455,12 +464,26 @@
   </si>
   <si>
     <t>Матвеева Н.И., врач-эпидемиолог (заведующий отделом эпидемиологии)тел.49-370, пн-пт с 8.00 до 17.00, вых. сб., вс.</t>
+  </si>
+  <si>
+    <t>2.44. Выдача справки о
+невыделении путевки на детей на
+санаторно-курортное лечение и
+оздоровление в текущем году</t>
+  </si>
+  <si>
+    <t>паспорт или иной документ,
+удостоверяющий личность</t>
+  </si>
+  <si>
+    <t>5 дней со дня
+обращения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1141,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,14 +1227,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,24 +1377,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,143 +1410,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1399,13 +1434,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>148080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1535,13 +1570,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>10645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2879912</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1716,6 +1751,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1751,6 +1803,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1926,11 +1995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J934"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:J935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,24 +2014,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
@@ -2019,55 +2088,55 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74">
+      <c r="A12" s="59">
         <v>1</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="47" t="s">
@@ -2075,410 +2144,410 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="128"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
+      <c r="A19" s="59">
         <v>2</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="62" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74">
+      <c r="A26" s="59">
         <v>3</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="62" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="128"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="128"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+      <c r="A29" s="59">
         <v>4</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="62" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="128"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="128"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="128"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="128"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="128"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74">
+      <c r="A36" s="59">
         <v>5</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="128"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
-      <c r="B38" s="128"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75"/>
-      <c r="B39" s="128"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="128"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="128"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
-      <c r="B42" s="128"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74">
+      <c r="A43" s="59">
         <v>6</v>
       </c>
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="96" t="s">
+      <c r="F43" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
-      <c r="B44" s="128"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76"/>
-      <c r="B45" s="129"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
@@ -2525,26 +2594,26 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="93"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="86"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
@@ -2639,1201 +2708,1201 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="74">
+      <c r="A55" s="59">
         <v>13</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="131" t="s">
+      <c r="E55" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="96" t="s">
+      <c r="F55" s="57" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="27"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="133" t="s">
+      <c r="D56" s="75"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="51"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="27"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="51"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="75"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="104"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="97"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="74">
+      <c r="A60" s="59">
         <v>14</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="103" t="s">
+      <c r="D60" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="96" t="s">
+      <c r="E60" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="104"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="133" t="s">
+      <c r="D62" s="75"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="27"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="51"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="104"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="51"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="104"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="78"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="27"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="104"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
-      <c r="B70" s="78"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="73"/>
       <c r="C70" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="104"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
-      <c r="B71" s="78"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="73"/>
       <c r="C72" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="75"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="104"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="78"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="75"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="104"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="76"/>
-      <c r="B78" s="79"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="105"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
       <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="74">
+      <c r="A79" s="59">
         <v>15</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="96" t="s">
+      <c r="D79" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="94" t="s">
+      <c r="E79" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F79" s="96" t="s">
+      <c r="F79" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="75"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="97"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="75"/>
-      <c r="B81" s="78"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="97"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="133" t="s">
+      <c r="D81" s="58"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="75"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="51"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="77"/>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="78"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="97"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="51"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="77"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="51"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="77"/>
     </row>
     <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="78"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="73"/>
       <c r="C85" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="97"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="51"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="77"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
-      <c r="B86" s="78"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="97"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
-      <c r="B87" s="78"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="97"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="97"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="75"/>
-      <c r="B88" s="78"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="95"/>
-      <c r="F88" s="97"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="75"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="97"/>
-      <c r="E89" s="95"/>
-      <c r="F89" s="97"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="58"/>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="74">
+      <c r="A90" s="59">
         <v>16</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="72" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="94" t="s">
+      <c r="E90" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="96" t="s">
+      <c r="F90" s="57" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="97"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="75"/>
-      <c r="B92" s="78"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="97"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="97"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="58"/>
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="78"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="95"/>
-      <c r="F93" s="97"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="78"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="73"/>
       <c r="C94" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="97"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="78"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="73"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="97"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="58"/>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="78"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="73"/>
       <c r="C96" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="97"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="97"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="78"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="73"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="97"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="58"/>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="78"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="73"/>
       <c r="C98" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="97"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="97"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="58"/>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="78"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="97"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="58"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="78"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="73"/>
       <c r="C100" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="97"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="97"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="58"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="78"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="12"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="97"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="75"/>
-      <c r="B102" s="78"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="73"/>
       <c r="C102" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="97"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="78"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="73"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="97"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="75"/>
-      <c r="B104" s="78"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="73"/>
       <c r="C104" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="97"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="78"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="97"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="78"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="73"/>
       <c r="C106" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="97"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="78"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="73"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="97"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="58"/>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="75"/>
-      <c r="B108" s="78"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="73"/>
       <c r="C108" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="97"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="97"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="75"/>
-      <c r="B109" s="78"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="73"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="97"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="58"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="75"/>
-      <c r="B110" s="78"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="73"/>
       <c r="C110" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="97"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="97"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="58"/>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="75"/>
-      <c r="B111" s="78"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="12"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="97"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="58"/>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="75"/>
-      <c r="B112" s="78"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="73"/>
       <c r="C112" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="97"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="97"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="58"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
-      <c r="B113" s="78"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="12"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="95"/>
-      <c r="F113" s="97"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="58"/>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="75"/>
-      <c r="B114" s="78"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D114" s="97"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="97"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="58"/>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="78"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="12"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="95"/>
-      <c r="F115" s="97"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="58"/>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="75"/>
-      <c r="B116" s="79"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="91"/>
       <c r="C116" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="98"/>
-      <c r="E116" s="95"/>
-      <c r="F116" s="98"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="65"/>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="74">
+      <c r="A117" s="59">
         <v>17</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="96" t="s">
+      <c r="D117" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="96" t="s">
+      <c r="E117" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F117" s="103" t="s">
+      <c r="F117" s="74" t="s">
         <v>72</v>
       </c>
       <c r="G117" s="14"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="75"/>
-      <c r="B118" s="78"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="73"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="104"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="75"/>
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="75"/>
-      <c r="B119" s="78"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="97"/>
-      <c r="E119" s="97"/>
-      <c r="F119" s="104"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="75"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="75"/>
-      <c r="B120" s="78"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="73"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
-      <c r="F120" s="104"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="75"/>
       <c r="G120" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="75"/>
-      <c r="B121" s="78"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="73"/>
       <c r="C121" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="97"/>
-      <c r="E121" s="97"/>
-      <c r="F121" s="104"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="75"/>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="75"/>
-      <c r="B122" s="78"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="73"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="97"/>
-      <c r="F122" s="104"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="75"/>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="75"/>
-      <c r="B123" s="78"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="73"/>
       <c r="C123" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-      <c r="F123" s="104"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="75"/>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="75"/>
-      <c r="B124" s="78"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="73"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="97"/>
-      <c r="F124" s="104"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="75"/>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
-      <c r="B125" s="78"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
-      <c r="F125" s="104"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="58"/>
+      <c r="F125" s="75"/>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
-      <c r="B126" s="78"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="73"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97"/>
-      <c r="F126" s="104"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="75"/>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="78"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="104"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="75"/>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="75"/>
-      <c r="B128" s="78"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="73"/>
       <c r="C128" s="12"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="97"/>
-      <c r="F128" s="104"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="75"/>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="75"/>
-      <c r="B129" s="78"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D129" s="97"/>
-      <c r="E129" s="97"/>
-      <c r="F129" s="104"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="75"/>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="75"/>
-      <c r="B130" s="78"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="73"/>
       <c r="C130" s="12"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="97"/>
-      <c r="F130" s="104"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="75"/>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131" s="75"/>
-      <c r="B131" s="78"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="73"/>
       <c r="C131" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D131" s="97"/>
-      <c r="E131" s="97"/>
-      <c r="F131" s="104"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="75"/>
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="75"/>
-      <c r="B132" s="78"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="73"/>
       <c r="C132" s="12"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="97"/>
-      <c r="F132" s="104"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="75"/>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="75"/>
-      <c r="B133" s="78"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="73"/>
       <c r="C133" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="104"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="75"/>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="75"/>
-      <c r="B134" s="78"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="73"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="97"/>
-      <c r="F134" s="104"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="75"/>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="75"/>
-      <c r="B135" s="78"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="73"/>
       <c r="C135" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D135" s="97"/>
-      <c r="E135" s="97"/>
-      <c r="F135" s="104"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="75"/>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="75"/>
-      <c r="B136" s="78"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="73"/>
       <c r="C136" s="12"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="97"/>
-      <c r="F136" s="104"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="75"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="75"/>
-      <c r="B137" s="79"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="91"/>
       <c r="C137" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="98"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="105"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="83"/>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="74">
+      <c r="A138" s="59">
         <v>18</v>
       </c>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="72" t="s">
         <v>73</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D138" s="96" t="s">
+      <c r="D138" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="94" t="s">
+      <c r="E138" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F138" s="96" t="s">
+      <c r="F138" s="57" t="s">
         <v>82</v>
       </c>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="75"/>
-      <c r="B139" s="78"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="73"/>
       <c r="C139" s="12"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="95"/>
-      <c r="F139" s="97"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="96"/>
+      <c r="F139" s="58"/>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="75"/>
-      <c r="B140" s="78"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="73"/>
       <c r="C140" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="97"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="97"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="96"/>
+      <c r="F140" s="58"/>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="75"/>
-      <c r="B141" s="78"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="73"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="95"/>
-      <c r="F141" s="97"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="96"/>
+      <c r="F141" s="58"/>
       <c r="G141" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="75"/>
-      <c r="B142" s="78"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="73"/>
       <c r="C142" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D142" s="97"/>
-      <c r="E142" s="95"/>
-      <c r="F142" s="97"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="96"/>
+      <c r="F142" s="58"/>
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="75"/>
-      <c r="B143" s="78"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="73"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="95"/>
-      <c r="F143" s="97"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="75"/>
-      <c r="B144" s="78"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="73"/>
       <c r="C144" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="95"/>
-      <c r="F144" s="97"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="58"/>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="75"/>
-      <c r="B145" s="78"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="73"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="95"/>
-      <c r="F145" s="97"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="58"/>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="75"/>
-      <c r="B146" s="78"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="73"/>
       <c r="C146" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="97"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="97"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="96"/>
+      <c r="F146" s="58"/>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="75"/>
-      <c r="B147" s="78"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="73"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="97"/>
-      <c r="E147" s="95"/>
-      <c r="F147" s="97"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="96"/>
+      <c r="F147" s="58"/>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="75"/>
-      <c r="B148" s="78"/>
+      <c r="A148" s="60"/>
+      <c r="B148" s="73"/>
       <c r="C148" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D148" s="97"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="97"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="58"/>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="75"/>
-      <c r="B149" s="78"/>
+      <c r="A149" s="60"/>
+      <c r="B149" s="73"/>
       <c r="C149" s="12"/>
-      <c r="D149" s="97"/>
-      <c r="E149" s="95"/>
-      <c r="F149" s="97"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="96"/>
+      <c r="F149" s="58"/>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="75"/>
-      <c r="B150" s="78"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="73"/>
       <c r="C150" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="97"/>
-      <c r="E150" s="95"/>
-      <c r="F150" s="97"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="96"/>
+      <c r="F150" s="58"/>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="75"/>
-      <c r="B151" s="78"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="73"/>
       <c r="C151" s="12"/>
-      <c r="D151" s="97"/>
-      <c r="E151" s="95"/>
-      <c r="F151" s="97"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="96"/>
+      <c r="F151" s="58"/>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="75"/>
-      <c r="B152" s="78"/>
+      <c r="A152" s="60"/>
+      <c r="B152" s="73"/>
       <c r="C152" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D152" s="97"/>
-      <c r="E152" s="95"/>
-      <c r="F152" s="97"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="58"/>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="75"/>
-      <c r="B153" s="78"/>
+      <c r="A153" s="60"/>
+      <c r="B153" s="73"/>
       <c r="C153" s="12"/>
-      <c r="D153" s="97"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="97"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="96"/>
+      <c r="F153" s="58"/>
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="75"/>
-      <c r="B154" s="78"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="73"/>
       <c r="C154" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D154" s="97"/>
-      <c r="E154" s="95"/>
-      <c r="F154" s="97"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="58"/>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="75"/>
-      <c r="B155" s="78"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="73"/>
       <c r="C155" s="12"/>
-      <c r="D155" s="97"/>
-      <c r="E155" s="95"/>
-      <c r="F155" s="97"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="58"/>
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A156" s="75"/>
-      <c r="B156" s="78"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="73"/>
       <c r="C156" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D156" s="97"/>
-      <c r="E156" s="95"/>
-      <c r="F156" s="97"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="75"/>
-      <c r="B157" s="78"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="73"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="97"/>
-      <c r="E157" s="95"/>
-      <c r="F157" s="97"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="58"/>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="75"/>
-      <c r="B158" s="78"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="73"/>
       <c r="C158" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D158" s="97"/>
-      <c r="E158" s="95"/>
-      <c r="F158" s="97"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="58"/>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="75"/>
-      <c r="B159" s="78"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="73"/>
       <c r="C159" s="12"/>
-      <c r="D159" s="97"/>
-      <c r="E159" s="95"/>
-      <c r="F159" s="97"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="58"/>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="75"/>
-      <c r="B160" s="78"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D160" s="97"/>
-      <c r="E160" s="95"/>
-      <c r="F160" s="97"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="58"/>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="75"/>
-      <c r="B161" s="78"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="73"/>
       <c r="C161" s="12"/>
-      <c r="D161" s="97"/>
-      <c r="E161" s="95"/>
-      <c r="F161" s="97"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="58"/>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="75"/>
-      <c r="B162" s="78"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="73"/>
       <c r="C162" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D162" s="97"/>
-      <c r="E162" s="95"/>
-      <c r="F162" s="97"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="58"/>
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="75"/>
-      <c r="B163" s="78"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="73"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="97"/>
-      <c r="E163" s="95"/>
-      <c r="F163" s="97"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="58"/>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A164" s="75"/>
-      <c r="B164" s="78"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="73"/>
       <c r="C164" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D164" s="97"/>
-      <c r="E164" s="95"/>
-      <c r="F164" s="97"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="96"/>
+      <c r="F164" s="58"/>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="75"/>
-      <c r="B165" s="78"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="12"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="95"/>
-      <c r="F165" s="97"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="96"/>
+      <c r="F165" s="58"/>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="76"/>
-      <c r="B166" s="79"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="91"/>
       <c r="C166" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D166" s="98"/>
-      <c r="E166" s="99"/>
-      <c r="F166" s="98"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="97"/>
+      <c r="F166" s="65"/>
       <c r="G166" s="16"/>
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3906,47 +3975,47 @@
       </c>
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="106">
+      <c r="A170" s="92">
         <v>22</v>
       </c>
-      <c r="B170" s="77" t="s">
+      <c r="B170" s="72" t="s">
         <v>87</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="96" t="s">
+      <c r="D170" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="94" t="s">
+      <c r="E170" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F170" s="96" t="s">
+      <c r="F170" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="G170" s="134" t="s">
+      <c r="G170" s="107" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="107"/>
-      <c r="B171" s="78"/>
+      <c r="A171" s="93"/>
+      <c r="B171" s="73"/>
       <c r="C171" s="12"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="95"/>
-      <c r="F171" s="97"/>
-      <c r="G171" s="118"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="96"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="108"/>
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="108"/>
-      <c r="B172" s="79"/>
+      <c r="A172" s="94"/>
+      <c r="B172" s="91"/>
       <c r="C172" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="98"/>
-      <c r="E172" s="99"/>
-      <c r="F172" s="98"/>
-      <c r="G172" s="119"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="97"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="109"/>
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
@@ -4087,401 +4156,422 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="74">
+      <c r="A179" s="59">
         <v>29</v>
       </c>
-      <c r="B179" s="115" t="s">
+      <c r="B179" s="104" t="s">
         <v>97</v>
       </c>
       <c r="C179" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D179" s="112" t="s">
+      <c r="D179" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="112" t="s">
+      <c r="E179" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F179" s="112" t="s">
+      <c r="F179" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G179" s="135" t="s">
+      <c r="G179" s="110" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="75"/>
-      <c r="B180" s="116"/>
+      <c r="A180" s="60"/>
+      <c r="B180" s="105"/>
       <c r="C180" s="34"/>
-      <c r="D180" s="113"/>
-      <c r="E180" s="113"/>
-      <c r="F180" s="113"/>
-      <c r="G180" s="120"/>
+      <c r="D180" s="102"/>
+      <c r="E180" s="102"/>
+      <c r="F180" s="102"/>
+      <c r="G180" s="111"/>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="75"/>
-      <c r="B181" s="116"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="105"/>
       <c r="C181" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D181" s="113"/>
-      <c r="E181" s="113"/>
-      <c r="F181" s="113"/>
-      <c r="G181" s="120"/>
+      <c r="D181" s="102"/>
+      <c r="E181" s="102"/>
+      <c r="F181" s="102"/>
+      <c r="G181" s="111"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="75"/>
-      <c r="B182" s="116"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="105"/>
       <c r="C182" s="34"/>
-      <c r="D182" s="113"/>
-      <c r="E182" s="113"/>
-      <c r="F182" s="113"/>
-      <c r="G182" s="120"/>
+      <c r="D182" s="102"/>
+      <c r="E182" s="102"/>
+      <c r="F182" s="102"/>
+      <c r="G182" s="111"/>
     </row>
     <row r="183" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="75"/>
-      <c r="B183" s="116"/>
+      <c r="A183" s="60"/>
+      <c r="B183" s="105"/>
       <c r="C183" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D183" s="113"/>
-      <c r="E183" s="113"/>
-      <c r="F183" s="113"/>
+      <c r="D183" s="102"/>
+      <c r="E183" s="102"/>
+      <c r="F183" s="102"/>
       <c r="G183" s="35"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="75"/>
-      <c r="B184" s="116"/>
+      <c r="A184" s="60"/>
+      <c r="B184" s="105"/>
       <c r="C184" s="34"/>
-      <c r="D184" s="113"/>
-      <c r="E184" s="113"/>
-      <c r="F184" s="113"/>
+      <c r="D184" s="102"/>
+      <c r="E184" s="102"/>
+      <c r="F184" s="102"/>
       <c r="G184" s="35"/>
     </row>
     <row r="185" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="75"/>
-      <c r="B185" s="116"/>
+      <c r="A185" s="60"/>
+      <c r="B185" s="105"/>
       <c r="C185" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D185" s="113"/>
-      <c r="E185" s="113"/>
-      <c r="F185" s="113"/>
+      <c r="D185" s="102"/>
+      <c r="E185" s="102"/>
+      <c r="F185" s="102"/>
       <c r="G185" s="35"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="75"/>
-      <c r="B186" s="116"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="105"/>
       <c r="C186" s="34"/>
-      <c r="D186" s="113"/>
-      <c r="E186" s="113"/>
-      <c r="F186" s="113"/>
+      <c r="D186" s="102"/>
+      <c r="E186" s="102"/>
+      <c r="F186" s="102"/>
       <c r="G186" s="35"/>
     </row>
     <row r="187" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="75"/>
-      <c r="B187" s="116"/>
+      <c r="A187" s="60"/>
+      <c r="B187" s="105"/>
       <c r="C187" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D187" s="113"/>
-      <c r="E187" s="113"/>
-      <c r="F187" s="113"/>
+      <c r="D187" s="102"/>
+      <c r="E187" s="102"/>
+      <c r="F187" s="102"/>
       <c r="G187" s="35"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="75"/>
-      <c r="B188" s="116"/>
+      <c r="A188" s="60"/>
+      <c r="B188" s="105"/>
       <c r="C188" s="34"/>
-      <c r="D188" s="113"/>
-      <c r="E188" s="113"/>
-      <c r="F188" s="113"/>
+      <c r="D188" s="102"/>
+      <c r="E188" s="102"/>
+      <c r="F188" s="102"/>
       <c r="G188" s="35"/>
     </row>
     <row r="189" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="76"/>
-      <c r="B189" s="117"/>
+      <c r="A189" s="61"/>
+      <c r="B189" s="106"/>
       <c r="C189" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D189" s="114"/>
-      <c r="E189" s="114"/>
-      <c r="F189" s="114"/>
+      <c r="D189" s="103"/>
+      <c r="E189" s="103"/>
+      <c r="F189" s="103"/>
       <c r="G189" s="37"/>
     </row>
-    <row r="190" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="109" t="s">
+    <row r="190" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="51">
+        <v>30</v>
+      </c>
+      <c r="B190" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F190" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" s="13" t="str">
+        <f>G179</f>
+        <v>Балакис В.Е., главный бухгалтер, пн-пт,  с 8.00 до 17.00 тел. 49-054</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="110"/>
-      <c r="C190" s="110"/>
-      <c r="D190" s="110"/>
-      <c r="E190" s="110"/>
-      <c r="F190" s="110"/>
-      <c r="G190" s="111"/>
-    </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="121" t="s">
+      <c r="B191" s="99"/>
+      <c r="C191" s="99"/>
+      <c r="D191" s="99"/>
+      <c r="E191" s="99"/>
+      <c r="F191" s="99"/>
+      <c r="G191" s="100"/>
+    </row>
+    <row r="192" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="B191" s="122"/>
-      <c r="C191" s="122"/>
-      <c r="D191" s="122"/>
-      <c r="E191" s="122"/>
-      <c r="F191" s="122"/>
-      <c r="G191" s="123"/>
-    </row>
-    <row r="192" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="100">
+      <c r="B192" s="113"/>
+      <c r="C192" s="113"/>
+      <c r="D192" s="113"/>
+      <c r="E192" s="113"/>
+      <c r="F192" s="113"/>
+      <c r="G192" s="114"/>
+    </row>
+    <row r="193" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="88">
         <v>30</v>
       </c>
-      <c r="B192" s="77" t="s">
+      <c r="B193" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D192" s="96" t="s">
+      <c r="D193" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E192" s="96" t="s">
+      <c r="E193" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F192" s="103" t="s">
+      <c r="F193" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="G192" s="49" t="s">
+      <c r="G193" s="49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="101"/>
-      <c r="B193" s="78"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="97"/>
-      <c r="E193" s="97"/>
-      <c r="F193" s="104"/>
-      <c r="G193" s="48" t="s">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="89"/>
+      <c r="B194" s="73"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="75"/>
+      <c r="G194" s="48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="101"/>
-      <c r="B194" s="78"/>
-      <c r="C194" s="12" t="s">
+    <row r="195" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="89"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D194" s="97"/>
-      <c r="E194" s="97"/>
-      <c r="F194" s="104"/>
-      <c r="G194" s="48" t="s">
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="75"/>
+      <c r="G195" s="48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="101"/>
-      <c r="B195" s="78"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="97"/>
-      <c r="E195" s="97"/>
-      <c r="F195" s="104"/>
-      <c r="G195" s="48" t="s">
+    <row r="196" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="89"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="75"/>
+      <c r="G196" s="48" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="102"/>
-      <c r="B196" s="79"/>
-      <c r="C196" s="15" t="s">
+    <row r="197" spans="1:10" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="90"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D196" s="98"/>
-      <c r="E196" s="98"/>
-      <c r="F196" s="105"/>
-      <c r="G196" s="16"/>
-    </row>
-    <row r="197" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="17">
+      <c r="D197" s="65"/>
+      <c r="E197" s="65"/>
+      <c r="F197" s="83"/>
+      <c r="G197" s="16"/>
+    </row>
+    <row r="198" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="17">
         <v>31</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B198" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C197" s="30" t="s">
+      <c r="C198" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D197" s="19" t="s">
+      <c r="D198" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E197" s="30" t="s">
+      <c r="E198" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F197" s="30" t="s">
+      <c r="F198" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G197" s="50" t="s">
+      <c r="G198" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="55" t="s">
+    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B198" s="56"/>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="57"/>
-    </row>
-    <row r="199" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="91" t="s">
+      <c r="B199" s="70"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="70"/>
+      <c r="F199" s="70"/>
+      <c r="G199" s="71"/>
+    </row>
+    <row r="200" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B199" s="92"/>
-      <c r="C199" s="92"/>
-      <c r="D199" s="92"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="92"/>
-      <c r="G199" s="93"/>
-    </row>
-    <row r="200" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="74">
+      <c r="B200" s="85"/>
+      <c r="C200" s="85"/>
+      <c r="D200" s="85"/>
+      <c r="E200" s="85"/>
+      <c r="F200" s="85"/>
+      <c r="G200" s="86"/>
+    </row>
+    <row r="201" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="59">
         <v>32</v>
       </c>
-      <c r="B200" s="77" t="s">
+      <c r="B201" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C201" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D200" s="52" t="s">
+      <c r="D201" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="52" t="s">
+      <c r="E201" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F200" s="52" t="s">
+      <c r="F201" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G200" s="136" t="s">
+      <c r="G201" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="75"/>
-      <c r="B201" s="78"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="53"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="35"/>
-    </row>
-    <row r="202" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="76"/>
-      <c r="B202" s="79"/>
-      <c r="C202" s="28" t="s">
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="60"/>
+      <c r="B202" s="73"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="79"/>
+      <c r="E202" s="79"/>
+      <c r="F202" s="79"/>
+      <c r="G202" s="35"/>
+    </row>
+    <row r="203" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="61"/>
+      <c r="B203" s="91"/>
+      <c r="C203" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="37"/>
-    </row>
-    <row r="203" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="17">
+      <c r="D203" s="80"/>
+      <c r="E203" s="80"/>
+      <c r="F203" s="80"/>
+      <c r="G203" s="37"/>
+    </row>
+    <row r="204" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="17">
         <v>33</v>
       </c>
-      <c r="B203" s="20" t="s">
+      <c r="B204" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C204" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D204" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E203" s="30" t="s">
+      <c r="E204" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F203" s="30" t="s">
+      <c r="F204" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G203" s="137" t="s">
+      <c r="G204" s="54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:10" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
-      <c r="B205" s="86"/>
-      <c r="C205" s="86"/>
-      <c r="D205" s="86"/>
-      <c r="G205" s="41"/>
-    </row>
-    <row r="206" spans="1:10" s="40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:10" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
-      <c r="B206" s="86"/>
-      <c r="C206" s="86"/>
-      <c r="D206" s="86"/>
+      <c r="B206" s="137"/>
+      <c r="C206" s="137"/>
+      <c r="D206" s="137"/>
       <c r="G206" s="41"/>
     </row>
-    <row r="207" spans="1:10" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
-      <c r="B207" s="86"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="86"/>
+      <c r="B207" s="137"/>
+      <c r="C207" s="137"/>
+      <c r="D207" s="137"/>
       <c r="G207" s="41"/>
     </row>
-    <row r="208" spans="1:10" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
-      <c r="B208" s="86"/>
-      <c r="C208" s="86"/>
-      <c r="D208" s="86"/>
+      <c r="B208" s="137"/>
+      <c r="C208" s="137"/>
+      <c r="D208" s="137"/>
       <c r="G208" s="41"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="87"/>
-      <c r="C209" s="87"/>
-      <c r="D209" s="87"/>
-    </row>
-    <row r="210" spans="1:7" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
-      <c r="B210" s="86"/>
-      <c r="C210" s="86"/>
-      <c r="D210" s="86"/>
-      <c r="G210" s="41"/>
-    </row>
-    <row r="211" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="39"/>
+      <c r="B209" s="137"/>
+      <c r="C209" s="137"/>
+      <c r="D209" s="137"/>
+      <c r="G209" s="41"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="138"/>
+      <c r="C210" s="138"/>
+      <c r="D210" s="138"/>
+    </row>
+    <row r="211" spans="1:7" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
-      <c r="B211" s="86"/>
-      <c r="C211" s="86"/>
-      <c r="D211" s="86"/>
+      <c r="B211" s="137"/>
+      <c r="C211" s="137"/>
+      <c r="D211" s="137"/>
       <c r="G211" s="41"/>
     </row>
-    <row r="212" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
-      <c r="B212" s="86"/>
-      <c r="C212" s="86"/>
-      <c r="D212" s="86"/>
-      <c r="E212" s="42"/>
+      <c r="B212" s="137"/>
+      <c r="C212" s="137"/>
+      <c r="D212" s="137"/>
       <c r="G212" s="41"/>
     </row>
-    <row r="213" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="73"/>
+      <c r="B213" s="137"/>
+      <c r="C213" s="137"/>
+      <c r="D213" s="137"/>
+      <c r="E213" s="42"/>
       <c r="G213" s="41"/>
     </row>
-    <row r="214" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="39"/>
+      <c r="B214" s="130"/>
+      <c r="C214" s="130"/>
+      <c r="D214" s="130"/>
+      <c r="G214" s="41"/>
+    </row>
+    <row r="215" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,13 +4583,13 @@
     <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
     </row>
     <row r="221" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4508,28 +4598,28 @@
     <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -4540,95 +4630,94 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
-      <c r="B237" s="88" t="s">
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4"/>
+      <c r="B238" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="C237" s="89"/>
-      <c r="D237" s="89"/>
-      <c r="E237" s="90"/>
-      <c r="G237" s="4"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="C238" s="81"/>
-      <c r="D238" s="81"/>
-      <c r="E238" s="82"/>
+      <c r="C238" s="140"/>
+      <c r="D238" s="140"/>
+      <c r="E238" s="141"/>
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="83"/>
-      <c r="C239" s="84"/>
-      <c r="D239" s="84"/>
-      <c r="E239" s="85"/>
+      <c r="B239" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" s="132"/>
+      <c r="D239" s="132"/>
+      <c r="E239" s="133"/>
       <c r="G239" s="4"/>
     </row>
     <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="83"/>
-      <c r="C240" s="84"/>
-      <c r="D240" s="84"/>
-      <c r="E240" s="85"/>
+      <c r="B240" s="134"/>
+      <c r="C240" s="135"/>
+      <c r="D240" s="135"/>
+      <c r="E240" s="136"/>
       <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="83"/>
-      <c r="C241" s="84"/>
-      <c r="D241" s="84"/>
-      <c r="E241" s="85"/>
+      <c r="B241" s="134"/>
+      <c r="C241" s="135"/>
+      <c r="D241" s="135"/>
+      <c r="E241" s="136"/>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="83"/>
-      <c r="C242" s="84"/>
-      <c r="D242" s="84"/>
-      <c r="E242" s="85"/>
+      <c r="B242" s="134"/>
+      <c r="C242" s="135"/>
+      <c r="D242" s="135"/>
+      <c r="E242" s="136"/>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="67" t="s">
+      <c r="B243" s="134"/>
+      <c r="C243" s="135"/>
+      <c r="D243" s="135"/>
+      <c r="E243" s="136"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="C243" s="68"/>
-      <c r="D243" s="68"/>
-      <c r="E243" s="69"/>
-      <c r="G243" s="4"/>
-    </row>
-    <row r="244" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="4"/>
-      <c r="B244" s="43"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="44"/>
-      <c r="E244" s="16"/>
+      <c r="C244" s="125"/>
+      <c r="D244" s="125"/>
+      <c r="E244" s="126"/>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
+      <c r="B245" s="43"/>
+      <c r="C245" s="44"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="16"/>
       <c r="G245" s="4"/>
     </row>
     <row r="246" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="1:7" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="G248" s="4"/>
     </row>
@@ -4644,66 +4733,66 @@
       <c r="A251" s="4"/>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="1:7" ht="55.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="55.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
-      <c r="B255" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C255" s="71"/>
-      <c r="D255" s="71"/>
-      <c r="E255" s="72"/>
       <c r="G255" s="4"/>
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="61"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="63"/>
+      <c r="B256" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C256" s="128"/>
+      <c r="D256" s="128"/>
+      <c r="E256" s="129"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="45"/>
-      <c r="B257" s="58" t="s">
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="118"/>
+      <c r="C257" s="119"/>
+      <c r="D257" s="119"/>
+      <c r="E257" s="120"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="45"/>
+      <c r="B258" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C257" s="59"/>
-      <c r="D257" s="59"/>
-      <c r="E257" s="60"/>
-      <c r="G257" s="4"/>
-    </row>
-    <row r="258" spans="1:7" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="45"/>
-      <c r="B258" s="61" t="s">
+      <c r="C258" s="116"/>
+      <c r="D258" s="116"/>
+      <c r="E258" s="117"/>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="1:7" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="45"/>
+      <c r="B259" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="C258" s="62"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="63"/>
-      <c r="G258" s="4"/>
-    </row>
-    <row r="259" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="45"/>
-      <c r="B259" s="64"/>
-      <c r="C259" s="65"/>
-      <c r="D259" s="65"/>
-      <c r="E259" s="66"/>
+      <c r="C259" s="119"/>
+      <c r="D259" s="119"/>
+      <c r="E259" s="120"/>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
+    <row r="260" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="45"/>
+      <c r="B260" s="121"/>
+      <c r="C260" s="122"/>
+      <c r="D260" s="122"/>
+      <c r="E260" s="123"/>
       <c r="G260" s="4"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,8 +4803,9 @@
       <c r="A262" s="4"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
+      <c r="G263" s="4"/>
     </row>
     <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
@@ -4723,24 +4813,20 @@
     <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
     </row>
-    <row r="266" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
     </row>
-    <row r="267" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="45"/>
-      <c r="B270" s="45"/>
-      <c r="C270" s="45"/>
-      <c r="D270" s="45"/>
-      <c r="E270" s="45"/>
+      <c r="A270" s="4"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="45"/>
@@ -4798,19 +4884,19 @@
       <c r="D278" s="45"/>
       <c r="E278" s="45"/>
     </row>
-    <row r="279" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="45"/>
       <c r="B279" s="45"/>
       <c r="C279" s="45"/>
       <c r="D279" s="45"/>
       <c r="E279" s="45"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="46"/>
-      <c r="B280" s="46"/>
-      <c r="C280" s="46"/>
-      <c r="D280" s="46"/>
-      <c r="E280" s="46"/>
+    <row r="280" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="45"/>
+      <c r="B280" s="45"/>
+      <c r="C280" s="45"/>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="46"/>
@@ -9390,8 +9476,102 @@
       <c r="D934" s="46"/>
       <c r="E934" s="46"/>
     </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" s="46"/>
+      <c r="B935" s="46"/>
+      <c r="C935" s="46"/>
+      <c r="D935" s="46"/>
+      <c r="E935" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="G81:G85"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="F201:F203"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B259:E260"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B256:E257"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B239:E243"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="E79:E89"/>
+    <mergeCell ref="B60:B78"/>
+    <mergeCell ref="F138:F166"/>
+    <mergeCell ref="B138:B166"/>
+    <mergeCell ref="D138:D166"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A117:A137"/>
+    <mergeCell ref="E90:E116"/>
+    <mergeCell ref="F90:F116"/>
+    <mergeCell ref="D79:D89"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="E138:E166"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="A138:A166"/>
+    <mergeCell ref="E117:E137"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="D90:D116"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="F79:F89"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="B117:B137"/>
+    <mergeCell ref="D117:D137"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="F179:F189"/>
+    <mergeCell ref="B179:B189"/>
+    <mergeCell ref="F117:F137"/>
+    <mergeCell ref="G170:G172"/>
+    <mergeCell ref="G179:G182"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="D179:D189"/>
+    <mergeCell ref="A192:G192"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E19:E25"/>
     <mergeCell ref="E29:E35"/>
     <mergeCell ref="F29:F35"/>
     <mergeCell ref="A29:A35"/>
@@ -9416,98 +9596,11 @@
     <mergeCell ref="F55:F59"/>
     <mergeCell ref="E60:E78"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="D192:D196"/>
-    <mergeCell ref="E192:E196"/>
-    <mergeCell ref="B117:B137"/>
-    <mergeCell ref="D117:D137"/>
-    <mergeCell ref="F192:F196"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="A190:G190"/>
-    <mergeCell ref="F179:F189"/>
-    <mergeCell ref="B179:B189"/>
-    <mergeCell ref="F117:F137"/>
-    <mergeCell ref="G170:G172"/>
-    <mergeCell ref="G179:G182"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="D179:D189"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="B60:B78"/>
-    <mergeCell ref="F138:F166"/>
-    <mergeCell ref="B138:B166"/>
-    <mergeCell ref="D138:D166"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A117:A137"/>
-    <mergeCell ref="E90:E116"/>
-    <mergeCell ref="F90:F116"/>
-    <mergeCell ref="D79:D89"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="E138:E166"/>
-    <mergeCell ref="A90:A116"/>
-    <mergeCell ref="A138:A166"/>
-    <mergeCell ref="E117:E137"/>
-    <mergeCell ref="B90:B116"/>
-    <mergeCell ref="D90:D116"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="F79:F89"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="F200:F202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="A198:G198"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="B258:E259"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B255:E256"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B238:E242"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="E79:E89"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B257" r:id="rId1"/>
-    <hyperlink ref="B243:E243" r:id="rId2" display=" т.е. в вышестоящую организацию."/>
+    <hyperlink ref="B258" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B244:E244" r:id="rId2" display=" т.е. в вышестоящую организацию." xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -9516,7 +9609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
